--- a/src/models/baselines/LR/results/synthetic/topology/tv1/metrics.xlsx
+++ b/src/models/baselines/LR/results/synthetic/topology/tv1/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4292929292929293</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4292929292929293</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5996709519436791</v>
+        <v>0.9402356902356903</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4494949494949495</v>
+        <v>0.8383838383838383</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4494949494949495</v>
+        <v>0.8383838383838383</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6452785430058158</v>
+        <v>0.9511019283746557</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.404040404040404</v>
+        <v>0.8585858585858586</v>
       </c>
       <c r="C4" t="n">
-        <v>0.404040404040404</v>
+        <v>0.8585858585858586</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6071701867156413</v>
+        <v>0.9677456382001837</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5101010101010101</v>
+        <v>0.8434343434343434</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5101010101010101</v>
+        <v>0.8434343434343435</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6599709213345577</v>
+        <v>0.958065503520049</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4191919191919192</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4191919191919192</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6079354147535966</v>
+        <v>0.9737909397000307</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.797979797979798</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.7979797979797979</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5863559840832567</v>
+        <v>0.9462427303336395</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4494949494949495</v>
+        <v>0.8434343434343434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4494949494949495</v>
+        <v>0.8434343434343435</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6476124885215795</v>
+        <v>0.9548132843587389</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4494949494949495</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4494949494949495</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6324992347719621</v>
+        <v>0.9793005815733089</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4141414141414141</v>
+        <v>0.8838383838383839</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4141414141414141</v>
+        <v>0.8838383838383839</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6147842056932966</v>
+        <v>0.9643403734312826</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5867003367003366</v>
+        <v>0.978458830731558</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4383838383838383</v>
+        <v>0.8535353535353536</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4383838383838384</v>
+        <v>0.8535353535353536</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6187978267523722</v>
+        <v>0.9614095500459138</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02971750055705889</v>
+        <v>0.03490983392816115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02971750055705888</v>
+        <v>0.03490983392816116</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02610306046334723</v>
+        <v>0.01354870523433666</v>
       </c>
     </row>
   </sheetData>
